--- a/docs/content/policy/policyAssignments/data/ALZPolicyAssignments.xlsx
+++ b/docs/content/policy/policyAssignments/data/ALZPolicyAssignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/springstone/repos/Springstone/Enterprise-Scale/docs/wiki/media/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/springstone/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{325CDA05-F0B3-D448-ADCC-C2D3FB484848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6601C325-E8A7-FC49-A181-206B447BDAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="429">
   <si>
     <t>Assignment Scope (MG)</t>
   </si>
@@ -1304,6 +1304,21 @@
   </si>
   <si>
     <t>FY25H2</t>
+  </si>
+  <si>
+    <t>Microsoft Cloud Security Benchmark v2</t>
+  </si>
+  <si>
+    <t>[Preview]: Microsoft cloud security benchmark v2</t>
+  </si>
+  <si>
+    <t>DINE-ASB2PolicyAssignment.json</t>
+  </si>
+  <si>
+    <t>The Microsoft cloud security benchmark initiative represents the policies and controls implementing security recommendations defined in Microsoft cloud security benchmark, see https://aka.ms/azsecbm. This also serves as the Microsoft Defender for Cloud default policy initiative. You can directly assign this initiative, or manage its policies and compliance results within Microsoft Defender for Cloud.</t>
+  </si>
+  <si>
+    <t>https://www.azadvertizer.net/azpolicyinitiativesadvertizer/e3ec7e09-768c-4b64-882c-fcada3772047.html</t>
   </si>
 </sst>
 </file>
@@ -1929,11 +1944,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2148,15 +2163,15 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>424</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>123</v>
+        <v>425</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -2165,30 +2180,30 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>427</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>125</v>
+        <v>426</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>126</v>
+        <v>428</v>
       </c>
       <c r="J7" s="6">
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -2197,112 +2212,112 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J8" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="J9" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="J10" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J11" s="6">
         <v>45018</v>
@@ -2313,74 +2328,74 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J12" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J13" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
@@ -2389,158 +2404,158 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J14" s="6">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J15" s="6">
-        <v>45266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="J16" s="6">
-        <v>45427</v>
-      </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6">
+        <v>45427</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="6">
-        <v>45124</v>
-      </c>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -2549,60 +2564,60 @@
         <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J19" s="6">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="6">
-        <v>45519</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>30</v>
@@ -2611,62 +2626,62 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="J21" s="6">
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="J22" s="6">
-        <v>45180</v>
+        <v>45018</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
@@ -2675,51 +2690,51 @@
         <v>12</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J23" s="6">
-        <v>45187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="J24" s="6">
-        <v>45018</v>
+        <v>45187</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2727,10 +2742,10 @@
         <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>30</v>
@@ -2739,30 +2754,30 @@
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="J25" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>30</v>
@@ -2771,94 +2786,94 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="J26" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J27" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="J28" s="6">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>11</v>
@@ -2867,62 +2882,62 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="J29" s="6">
-        <v>45685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="J30" s="6">
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>30</v>
@@ -2931,62 +2946,62 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="J31" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J32" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>30</v>
@@ -2995,30 +3010,30 @@
         <v>19</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J33" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>30</v>
@@ -3027,30 +3042,30 @@
         <v>19</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J34" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>30</v>
@@ -3059,30 +3074,30 @@
         <v>19</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="J35" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>30</v>
@@ -3091,30 +3106,30 @@
         <v>19</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="J36" s="6">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>30</v>
@@ -3123,30 +3138,30 @@
         <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="J37" s="6">
         <v>45084</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>30</v>
@@ -3155,30 +3170,30 @@
         <v>19</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="J38" s="6">
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>30</v>
@@ -3187,16 +3202,16 @@
         <v>19</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="J39" s="6">
         <v>45018</v>
@@ -3207,10 +3222,10 @@
         <v>57</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>30</v>
@@ -3219,30 +3234,30 @@
         <v>19</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J40" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>30</v>
@@ -3251,48 +3266,48 @@
         <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J41" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="J42" s="6">
         <v>45018</v>
@@ -3303,10 +3318,10 @@
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>11</v>
@@ -3315,124 +3330,124 @@
         <v>12</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J43" s="6">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>189</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="I44" s="4"/>
       <c r="J44" s="6">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J45" s="6">
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="J46" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>30</v>
@@ -3441,51 +3456,51 @@
         <v>19</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J47" s="6">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J48" s="6">
         <v>45519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J48" s="6">
-        <v>45018</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -3493,10 +3508,10 @@
         <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -3505,48 +3520,48 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J49" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="J50" s="6">
         <v>45018</v>
@@ -3557,10 +3572,10 @@
         <v>96</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>30</v>
@@ -3569,30 +3584,30 @@
         <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J51" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>30</v>
@@ -3601,94 +3616,94 @@
         <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="J52" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>35</v>
+        <v>205</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="J53" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>208</v>
+        <v>35</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>211</v>
+        <v>35</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J54" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>11</v>
@@ -3697,63 +3712,62 @@
         <v>12</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J55" s="6">
         <v>45018</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="J56" s="6">
-        <v>45322</v>
-      </c>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -3762,31 +3776,31 @@
         <v>19</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J57" s="6">
         <v>45322</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
@@ -3795,16 +3809,16 @@
         <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J58" s="6">
         <v>45322</v>
@@ -3816,10 +3830,10 @@
         <v>34</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
@@ -3828,16 +3842,16 @@
         <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J59" s="6">
         <v>45322</v>
@@ -3849,10 +3863,10 @@
         <v>34</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
@@ -3861,16 +3875,16 @@
         <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J60" s="6">
         <v>45322</v>
@@ -3882,10 +3896,10 @@
         <v>34</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -3894,31 +3908,31 @@
         <v>19</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J61" s="6">
         <v>45322</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
@@ -3927,130 +3941,130 @@
         <v>19</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J62" s="6">
         <v>45322</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J63" s="6">
         <v>45322</v>
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J64" s="6">
         <v>45322</v>
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="J65" s="6">
         <v>45322</v>
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
@@ -4059,31 +4073,31 @@
         <v>19</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J66" s="6">
         <v>45322</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
@@ -4092,16 +4106,16 @@
         <v>19</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J67" s="6">
         <v>45322</v>
@@ -4113,10 +4127,10 @@
         <v>57</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
@@ -4125,16 +4139,16 @@
         <v>19</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J68" s="6">
         <v>45322</v>
@@ -4146,10 +4160,10 @@
         <v>57</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -4158,16 +4172,16 @@
         <v>19</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J69" s="6">
         <v>45322</v>
@@ -4179,10 +4193,10 @@
         <v>57</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>11</v>
@@ -4191,31 +4205,31 @@
         <v>19</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J70" s="6">
         <v>45322</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>11</v>
@@ -4224,16 +4238,16 @@
         <v>19</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J71" s="6">
         <v>45322</v>
@@ -4245,70 +4259,70 @@
         <v>57</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J72" s="6">
         <v>45322</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>417</v>
+        <v>265</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>413</v>
+        <v>265</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>416</v>
+        <v>266</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>415</v>
+        <v>39</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="J73" s="6">
-        <v>45784</v>
+        <v>45322</v>
       </c>
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>417</v>
@@ -4335,15 +4349,48 @@
         <v>414</v>
       </c>
       <c r="J74" s="6">
+        <v>45784</v>
+      </c>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J75" s="6">
         <v>45785</v>
       </c>
-      <c r="K74" s="3"/>
+      <c r="K75" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I73" r:id="rId1" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/281d9e47-d14d-4f05-b8eb-18f2c4a034ff.html" xr:uid="{D206ECB8-9E61-4E32-80CA-0DDF0C03A46F}"/>
-    <hyperlink ref="I74" r:id="rId2" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/281d9e47-d14d-4f05-b8eb-18f2c4a034ff.html" xr:uid="{FCEA4117-D58D-47F6-A527-0F43A12942BA}"/>
-    <hyperlink ref="I17" r:id="rId3" display="https://www.azadvertizer.net/azpolicyadvertizer/98903777-a9f6-47f5-90a9-acaf62ab01a8.html" xr:uid="{B8DC5C77-1DEC-44D7-B886-FC7EFCCA2B3B}"/>
+    <hyperlink ref="I74" r:id="rId1" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/281d9e47-d14d-4f05-b8eb-18f2c4a034ff.html" xr:uid="{D206ECB8-9E61-4E32-80CA-0DDF0C03A46F}"/>
+    <hyperlink ref="I75" r:id="rId2" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/281d9e47-d14d-4f05-b8eb-18f2c4a034ff.html" xr:uid="{FCEA4117-D58D-47F6-A527-0F43A12942BA}"/>
+    <hyperlink ref="I18" r:id="rId3" display="https://www.azadvertizer.net/azpolicyadvertizer/98903777-a9f6-47f5-90a9-acaf62ab01a8.html" xr:uid="{B8DC5C77-1DEC-44D7-B886-FC7EFCCA2B3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -5570,6 +5617,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c5ae4f-ecb0-448c-82d7-66022c31a977">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7c265764-6886-46a3-9c12-c296af1a4836" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001792584B535B9240A14A2E941038FA52" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29d6274d96300b72dcb696c613f494d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="76c5ae4f-ecb0-448c-82d7-66022c31a977" xmlns:ns3="7c265764-6886-46a3-9c12-c296af1a4836" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8542fb098e640cc25653cbc1ecb0f8e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5847,44 +5916,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c5ae4f-ecb0-448c-82d7-66022c31a977">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7c265764-6886-46a3-9c12-c296af1a4836" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9795881-6E33-4D17-9FF0-21053BCB75EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C5CC99-3819-4588-BB45-481593D3932B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="76c5ae4f-ecb0-448c-82d7-66022c31a977"/>
-    <ds:schemaRef ds:uri="7c265764-6886-46a3-9c12-c296af1a4836"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5908,9 +5943,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C5CC99-3819-4588-BB45-481593D3932B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9795881-6E33-4D17-9FF0-21053BCB75EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="76c5ae4f-ecb0-448c-82d7-66022c31a977"/>
+    <ds:schemaRef ds:uri="7c265764-6886-46a3-9c12-c296af1a4836"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/content/policy/policyAssignments/data/ALZPolicyAssignments.xlsx
+++ b/docs/content/policy/policyAssignments/data/ALZPolicyAssignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/springstone/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/springstone/repos/Springstone/Azure-Landing-Zones/docs/content/policy/policyAssignments/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6601C325-E8A7-FC49-A181-206B447BDAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D7D3D7-E22C-7844-B666-E29A8C1A4F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="430">
   <si>
     <t>Assignment Scope (MG)</t>
   </si>
@@ -1300,9 +1300,6 @@
     <t>DINE-ServiceHealthBuiltInPolicyAssignment.json</t>
   </si>
   <si>
-    <t>[Preview]: Configure subscriptions to enable service health alert monitoring rule - 98903777-a9f6-47f5-90a9-acaf62ab01a8 Azure Policy</t>
-  </si>
-  <si>
     <t>FY25H2</t>
   </si>
   <si>
@@ -1319,6 +1316,12 @@
   </si>
   <si>
     <t>https://www.azadvertizer.net/azpolicyinitiativesadvertizer/e3ec7e09-768c-4b64-882c-fcada3772047.html</t>
+  </si>
+  <si>
+    <t>Enforce-Backup</t>
+  </si>
+  <si>
+    <t>Updated 260203</t>
   </si>
 </sst>
 </file>
@@ -1946,9 +1949,9 @@
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2168,10 +2171,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -2180,16 +2183,16 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J7" s="6">
         <v>45992</v>
@@ -2508,7 +2511,9 @@
       <c r="H17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="J17" s="6">
         <v>45427</v>
       </c>
@@ -2539,11 +2544,11 @@
       <c r="H18" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -2578,6 +2583,9 @@
       <c r="J19" s="6">
         <v>45124</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -2604,7 +2612,9 @@
       <c r="H20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="J20" s="6">
         <v>45363</v>
       </c>
@@ -2993,7 +3003,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -3025,7 +3035,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -3057,7 +3067,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
@@ -3089,7 +3099,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -3121,7 +3131,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
@@ -3153,7 +3163,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -3185,7 +3195,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -3249,7 +3259,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -3281,7 +3291,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
@@ -3344,8 +3354,11 @@
       <c r="J43" s="6">
         <v>45018</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K43" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -3370,12 +3383,14 @@
       <c r="H44" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="J44" s="6">
         <v>45363</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
@@ -3407,7 +3422,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -3471,7 +3486,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
@@ -4391,9 +4406,12 @@
     <hyperlink ref="I74" r:id="rId1" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/281d9e47-d14d-4f05-b8eb-18f2c4a034ff.html" xr:uid="{D206ECB8-9E61-4E32-80CA-0DDF0C03A46F}"/>
     <hyperlink ref="I75" r:id="rId2" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/281d9e47-d14d-4f05-b8eb-18f2c4a034ff.html" xr:uid="{FCEA4117-D58D-47F6-A527-0F43A12942BA}"/>
     <hyperlink ref="I18" r:id="rId3" display="https://www.azadvertizer.net/azpolicyadvertizer/98903777-a9f6-47f5-90a9-acaf62ab01a8.html" xr:uid="{B8DC5C77-1DEC-44D7-B886-FC7EFCCA2B3B}"/>
+    <hyperlink ref="I20" r:id="rId4" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/Enforce-Backup.html" xr:uid="{3AC2730F-D716-C749-A3AD-3A407EC21168}"/>
+    <hyperlink ref="I17" r:id="rId5" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/Audit-TrustedLaunch.html" xr:uid="{A150D68D-B343-2D49-BC3E-23415CE75C99}"/>
+    <hyperlink ref="I44" r:id="rId6" display="https://www.azadvertizer.net/azpolicyinitiativesadvertizer/Enforce-Backup.html" xr:uid="{BD6915F6-A1CF-C74F-A4CF-A8C57364E736}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5617,28 +5635,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c5ae4f-ecb0-448c-82d7-66022c31a977">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7c265764-6886-46a3-9c12-c296af1a4836" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001792584B535B9240A14A2E941038FA52" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29d6274d96300b72dcb696c613f494d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="76c5ae4f-ecb0-448c-82d7-66022c31a977" xmlns:ns3="7c265764-6886-46a3-9c12-c296af1a4836" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8542fb098e640cc25653cbc1ecb0f8e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5916,10 +5912,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c5ae4f-ecb0-448c-82d7-66022c31a977">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7c265764-6886-46a3-9c12-c296af1a4836" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C5CC99-3819-4588-BB45-481593D3932B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9795881-6E33-4D17-9FF0-21053BCB75EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="76c5ae4f-ecb0-448c-82d7-66022c31a977"/>
+    <ds:schemaRef ds:uri="7c265764-6886-46a3-9c12-c296af1a4836"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5943,21 +5973,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9795881-6E33-4D17-9FF0-21053BCB75EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C5CC99-3819-4588-BB45-481593D3932B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="76c5ae4f-ecb0-448c-82d7-66022c31a977"/>
-    <ds:schemaRef ds:uri="7c265764-6886-46a3-9c12-c296af1a4836"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
